--- a/data/trans_orig/P14C24_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C60600B-FE9D-4C78-A392-BEC91818F380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDE1126-C7D3-490F-86FE-B23C46177C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC52BFE-6730-4067-8B28-BC315B19C5E5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8B8B8EE-BFCF-4A20-9D64-10D92A9C3E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
   <si>
     <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
   </si>
@@ -83,19 +83,19 @@
     <t>31,39%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,16 +107,16 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>63,6%</t>
+    <t>64,8%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,19 +131,19 @@
     <t>46,04%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>37,79%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,31 +158,31 @@
     <t>13,61%</t>
   </si>
   <si>
-    <t>85,61%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
   </si>
   <si>
     <t>58,13%</t>
   </si>
   <si>
-    <t>14,39%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>86,39%</t>
@@ -191,19 +191,19 @@
     <t>32,41%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -212,13 +212,13 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>45,02%</t>
+    <t>46,97%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>31,74%</t>
+    <t>31,3%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -227,76 +227,76 @@
     <t>58,11%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>59,46%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>44,98%</t>
+    <t>53,89%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>14,74%</t>
+    <t>16,5%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -305,55 +305,55 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>60,89%</t>
   </si>
   <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -362,19 +362,19 @@
     <t>9,87%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -383,76 +383,76 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>30,91%</t>
+    <t>37,87%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>12,87%</t>
+    <t>14,78%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -461,160 +461,154 @@
     <t>43,04%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>67,7%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>59,34%</t>
+    <t>57,36%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1029,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E59826B-F7A7-4666-AE77-531361660206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7B8DEB-742C-4672-852D-67EFBF7DF5A0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2237,10 +2231,10 @@
         <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2249,13 +2243,13 @@
         <v>15700</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2264,13 +2258,13 @@
         <v>18505</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2279,13 @@
         <v>1928</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2300,13 +2294,13 @@
         <v>4509</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2315,13 +2309,13 @@
         <v>6438</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2383,13 @@
         <v>39540</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -2404,13 +2398,13 @@
         <v>150426</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>175</v>
@@ -2419,13 +2413,13 @@
         <v>189966</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2434,13 @@
         <v>17960</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>54</v>
@@ -2455,13 +2449,13 @@
         <v>58106</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -2470,13 +2464,13 @@
         <v>76066</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2485,13 @@
         <v>5014</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -2506,13 +2500,13 @@
         <v>19647</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -2521,13 +2515,13 @@
         <v>24661</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2577,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C24_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CDE1126-C7D3-490F-86FE-B23C46177C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35AC37E-146A-40D1-8E8D-1B19958A9796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8B8B8EE-BFCF-4A20-9D64-10D92A9C3E9B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FD798F3-A1FD-4296-8258-0AEDE638B079}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="193">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2016 (Tasa respuesta: 4,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,19 +83,19 @@
     <t>31,39%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,16 +107,16 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>64,8%</t>
+    <t>60,85%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,10 +131,10 @@
     <t>46,04%</t>
   </si>
   <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>37,79%</t>
@@ -143,7 +143,7 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>77,27%</t>
+    <t>71,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,55 +155,55 @@
     <t>41,87%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>58,13%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>32,41%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>41,92%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -212,13 +212,13 @@
     <t>16,67%</t>
   </si>
   <si>
-    <t>46,97%</t>
+    <t>43,45%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>31,3%</t>
+    <t>31,61%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -227,76 +227,76 @@
     <t>58,11%</t>
   </si>
   <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>59,88%</t>
   </si>
   <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>59,46%</t>
   </si>
   <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>53,89%</t>
+    <t>47,01%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>16,5%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -305,154 +305,154 @@
     <t>82,18%</t>
   </si>
   <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>60,89%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
     <t>55/64</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>37,87%</t>
+    <t>32,2%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>14,78%</t>
+    <t>15,03%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -461,154 +461,157 @@
     <t>43,04%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>77,66%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>67,7%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>57,36%</t>
+    <t>58,84%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>2,88%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7B8DEB-742C-4672-852D-67EFBF7DF5A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F034E9D6-D815-43A9-A556-DE9E4D640E1F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2180,10 +2183,10 @@
         <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -2192,13 +2195,13 @@
         <v>48214</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -2207,13 +2210,13 @@
         <v>51790</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,10 +2231,10 @@
         <v>2804</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>150</v>
@@ -2315,7 +2318,7 @@
         <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2386,13 @@
         <v>39540</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -2398,13 +2401,13 @@
         <v>150426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
         <v>175</v>
@@ -2413,13 +2416,13 @@
         <v>189966</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2437,13 @@
         <v>17960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H29" s="7">
         <v>54</v>
@@ -2449,13 +2452,13 @@
         <v>58106</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -2464,13 +2467,13 @@
         <v>76066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2488,13 @@
         <v>5014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -2500,13 +2503,13 @@
         <v>19647</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -2515,13 +2518,13 @@
         <v>24661</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2580,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
